--- a/Sampledata.xlsx
+++ b/Sampledata.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suhai\eclipse-workspace\Automationproject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9BA3EA-4C6A-4989-BA68-F5FB8284E726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="490">
   <si>
     <t>kalyan</t>
   </si>
@@ -84,29 +96,1474 @@
   </si>
   <si>
     <t>What's the best way to get started?</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ExpectedResult</t>
+  </si>
+  <si>
+    <t>syedsuhail@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>wrong123</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Valid Login</t>
+  </si>
+  <si>
+    <t>Invalid Email</t>
+  </si>
+  <si>
+    <t>invalidEmail.com</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Invalid Password</t>
+  </si>
+  <si>
+    <t>wrongpass</t>
+  </si>
+  <si>
+    <t>fake@gmail.com</t>
+  </si>
+  <si>
+    <t>Invalid Username</t>
+  </si>
+  <si>
+    <t>wrong@gmail.com</t>
+  </si>
+  <si>
+    <t>Invalid Username + Password</t>
+  </si>
+  <si>
+    <t>Valid Username + Empty Pw</t>
+  </si>
+  <si>
+    <t>Empty Username + Valid Pw</t>
+  </si>
+  <si>
+    <t>Empty Username + Empty Pw</t>
+  </si>
+  <si>
+    <t>Invalid Username + Empty Pw</t>
+  </si>
+  <si>
+    <t>Empty Username + Invalid Pw</t>
+  </si>
+  <si>
+    <t>Navigate to Signup Page</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>Name valid input</t>
+  </si>
+  <si>
+    <t>Syed Mohammed</t>
+  </si>
+  <si>
+    <t>signup1+auto@example.com</t>
+  </si>
+  <si>
+    <t>Name invalid input</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>signup2+auto@example.com</t>
+  </si>
+  <si>
+    <t>Email valid input</t>
+  </si>
+  <si>
+    <t>ValidUser</t>
+  </si>
+  <si>
+    <t>valid.email+signup@example.com</t>
+  </si>
+  <si>
+    <t>Email invalid input</t>
+  </si>
+  <si>
+    <t>InvalidUser</t>
+  </si>
+  <si>
+    <t>Sign up button click</t>
+  </si>
+  <si>
+    <t>QuickUser</t>
+  </si>
+  <si>
+    <t>quickuser+signup@example.com</t>
+  </si>
+  <si>
+    <t>Already registered email</t>
+  </si>
+  <si>
+    <t>ExistingUser</t>
+  </si>
+  <si>
+    <t>existing@example.com</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Newsletter</t>
+  </si>
+  <si>
+    <t>Offers</t>
+  </si>
+  <si>
+    <t>Title radio Mr selection</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>RegUser1</t>
+  </si>
+  <si>
+    <t>reg1+auto@example.com</t>
+  </si>
+  <si>
+    <t>Pass@123</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>RegFirst</t>
+  </si>
+  <si>
+    <t>RegLast</t>
+  </si>
+  <si>
+    <t>CompanyA</t>
+  </si>
+  <si>
+    <t>Addr 1</t>
+  </si>
+  <si>
+    <t>Addr 2</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>StateA</t>
+  </si>
+  <si>
+    <t>CityA</t>
+  </si>
+  <si>
+    <t>9123456789</t>
+  </si>
+  <si>
+    <t>Title radio Mrs selection</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>RegUser2</t>
+  </si>
+  <si>
+    <t>reg2+auto@example.com</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>First2</t>
+  </si>
+  <si>
+    <t>Last2</t>
+  </si>
+  <si>
+    <t>CompanyB</t>
+  </si>
+  <si>
+    <t>Addr1B</t>
+  </si>
+  <si>
+    <t>Addr2B</t>
+  </si>
+  <si>
+    <t>StateB</t>
+  </si>
+  <si>
+    <t>CityB</t>
+  </si>
+  <si>
+    <t>54321</t>
+  </si>
+  <si>
+    <t>9123456790</t>
+  </si>
+  <si>
+    <t>Name valid in registration (first+last)</t>
+  </si>
+  <si>
+    <t>RegUser3</t>
+  </si>
+  <si>
+    <t>reg3+auto@example.com</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>FirstValid</t>
+  </si>
+  <si>
+    <t>LastValid</t>
+  </si>
+  <si>
+    <t>Comp</t>
+  </si>
+  <si>
+    <t>Street 1</t>
+  </si>
+  <si>
+    <t>PO Box</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>StateC</t>
+  </si>
+  <si>
+    <t>CityC</t>
+  </si>
+  <si>
+    <t>40001</t>
+  </si>
+  <si>
+    <t>9988776655</t>
+  </si>
+  <si>
+    <t>Name invalid in registration</t>
+  </si>
+  <si>
+    <t>reg4+auto@example.com</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>123First</t>
+  </si>
+  <si>
+    <t>123Last</t>
+  </si>
+  <si>
+    <t>CompX</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>StateUK</t>
+  </si>
+  <si>
+    <t>CityUK</t>
+  </si>
+  <si>
+    <t>560001</t>
+  </si>
+  <si>
+    <t>7000000000</t>
+  </si>
+  <si>
+    <t>Email valid in registration</t>
+  </si>
+  <si>
+    <t>RegUser5</t>
+  </si>
+  <si>
+    <t>validreg@example.com</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>AddrR1</t>
+  </si>
+  <si>
+    <t>AddrR2</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>StateAUS</t>
+  </si>
+  <si>
+    <t>CityAUS</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>6111111111</t>
+  </si>
+  <si>
+    <t>Password valid</t>
+  </si>
+  <si>
+    <t>RegUser6</t>
+  </si>
+  <si>
+    <t>reg6+auto@example.com</t>
+  </si>
+  <si>
+    <t>StrongPass1!</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>Fn6</t>
+  </si>
+  <si>
+    <t>Ln6</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>Addr61</t>
+  </si>
+  <si>
+    <t>Addr62</t>
+  </si>
+  <si>
+    <t>St6</t>
+  </si>
+  <si>
+    <t>Ct6</t>
+  </si>
+  <si>
+    <t>110001</t>
+  </si>
+  <si>
+    <t>9000000000</t>
+  </si>
+  <si>
+    <t>DOB dropdowns check</t>
+  </si>
+  <si>
+    <t>RegUser7</t>
+  </si>
+  <si>
+    <t>reg7+auto@example.com</t>
+  </si>
+  <si>
+    <t>DobPass1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>DFirst</t>
+  </si>
+  <si>
+    <t>DLast</t>
+  </si>
+  <si>
+    <t>DComp</t>
+  </si>
+  <si>
+    <t>DAddr1</t>
+  </si>
+  <si>
+    <t>DAddr2</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>DState</t>
+  </si>
+  <si>
+    <t>DCity</t>
+  </si>
+  <si>
+    <t>20002</t>
+  </si>
+  <si>
+    <t>9222222222</t>
+  </si>
+  <si>
+    <t>Newsletter checkbox true</t>
+  </si>
+  <si>
+    <t>NewsUser</t>
+  </si>
+  <si>
+    <t>news+auto@example.com</t>
+  </si>
+  <si>
+    <t>Npass1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>NFirst</t>
+  </si>
+  <si>
+    <t>NLast</t>
+  </si>
+  <si>
+    <t>NComp</t>
+  </si>
+  <si>
+    <t>NAddr1</t>
+  </si>
+  <si>
+    <t>NAddr2</t>
+  </si>
+  <si>
+    <t>StN</t>
+  </si>
+  <si>
+    <t>CtN</t>
+  </si>
+  <si>
+    <t>500001</t>
+  </si>
+  <si>
+    <t>Offers checkbox true</t>
+  </si>
+  <si>
+    <t>OfferUser</t>
+  </si>
+  <si>
+    <t>offer+auto@example.com</t>
+  </si>
+  <si>
+    <t>Opass1</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>OFirst</t>
+  </si>
+  <si>
+    <t>OLast</t>
+  </si>
+  <si>
+    <t>OComp</t>
+  </si>
+  <si>
+    <t>OAddr1</t>
+  </si>
+  <si>
+    <t>OAddr2</t>
+  </si>
+  <si>
+    <t>StO</t>
+  </si>
+  <si>
+    <t>CtO</t>
+  </si>
+  <si>
+    <t>400001</t>
+  </si>
+  <si>
+    <t>First name valid</t>
+  </si>
+  <si>
+    <t>RegUser8</t>
+  </si>
+  <si>
+    <t>reg8+auto@example.com</t>
+  </si>
+  <si>
+    <t>P@ss1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>FirstGood</t>
+  </si>
+  <si>
+    <t>LastGood</t>
+  </si>
+  <si>
+    <t>CompG</t>
+  </si>
+  <si>
+    <t>AddrG1</t>
+  </si>
+  <si>
+    <t>AddrG2</t>
+  </si>
+  <si>
+    <t>StateG</t>
+  </si>
+  <si>
+    <t>CityG</t>
+  </si>
+  <si>
+    <t>600001</t>
+  </si>
+  <si>
+    <t>9001112222</t>
+  </si>
+  <si>
+    <t>First name invalid</t>
+  </si>
+  <si>
+    <t>RegUser9</t>
+  </si>
+  <si>
+    <t>reg9+auto@example.com</t>
+  </si>
+  <si>
+    <t>P@ss2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>LastI</t>
+  </si>
+  <si>
+    <t>CoI</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>CityI</t>
+  </si>
+  <si>
+    <t>9002223333</t>
+  </si>
+  <si>
+    <t>Last name invalid</t>
+  </si>
+  <si>
+    <t>RegUser10</t>
+  </si>
+  <si>
+    <t>reg10+auto@example.com</t>
+  </si>
+  <si>
+    <t>P@ss3</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>FirstI</t>
+  </si>
+  <si>
+    <t>CoL</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>CityL</t>
+  </si>
+  <si>
+    <t>9003334444</t>
+  </si>
+  <si>
+    <t>Company field check</t>
+  </si>
+  <si>
+    <t>RegUser11</t>
+  </si>
+  <si>
+    <t>reg11+auto@example.com</t>
+  </si>
+  <si>
+    <t>CompPass1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>CFn</t>
+  </si>
+  <si>
+    <t>CLn</t>
+  </si>
+  <si>
+    <t>CompanyX</t>
+  </si>
+  <si>
+    <t>Addr1X</t>
+  </si>
+  <si>
+    <t>Addr2X</t>
+  </si>
+  <si>
+    <t>StateX</t>
+  </si>
+  <si>
+    <t>CityX</t>
+  </si>
+  <si>
+    <t>9004445555</t>
+  </si>
+  <si>
+    <t>Address1 field</t>
+  </si>
+  <si>
+    <t>RegUser12</t>
+  </si>
+  <si>
+    <t>reg12+auto@example.com</t>
+  </si>
+  <si>
+    <t>AddrPass</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>A1F</t>
+  </si>
+  <si>
+    <t>A1L</t>
+  </si>
+  <si>
+    <t>Co1</t>
+  </si>
+  <si>
+    <t>Street 100</t>
+  </si>
+  <si>
+    <t>122001</t>
+  </si>
+  <si>
+    <t>9005556666</t>
+  </si>
+  <si>
+    <t>Address2 field</t>
+  </si>
+  <si>
+    <t>RegUser13</t>
+  </si>
+  <si>
+    <t>reg13+auto@example.com</t>
+  </si>
+  <si>
+    <t>Addr2Pass</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>A2F</t>
+  </si>
+  <si>
+    <t>A2L</t>
+  </si>
+  <si>
+    <t>Co2</t>
+  </si>
+  <si>
+    <t>Street 200</t>
+  </si>
+  <si>
+    <t>Area 51</t>
+  </si>
+  <si>
+    <t>210001</t>
+  </si>
+  <si>
+    <t>9006667777</t>
+  </si>
+  <si>
+    <t>Country dropdown</t>
+  </si>
+  <si>
+    <t>CountryUser</t>
+  </si>
+  <si>
+    <t>country@example.com</t>
+  </si>
+  <si>
+    <t>Country1</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Addr1</t>
+  </si>
+  <si>
+    <t>Addr2</t>
+  </si>
+  <si>
+    <t>StateY</t>
+  </si>
+  <si>
+    <t>CityY</t>
+  </si>
+  <si>
+    <t>9007778888</t>
+  </si>
+  <si>
+    <t>State valid</t>
+  </si>
+  <si>
+    <t>StateUser</t>
+  </si>
+  <si>
+    <t>stateuser@example.com</t>
+  </si>
+  <si>
+    <t>StatePass</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>CoS</t>
+  </si>
+  <si>
+    <t>AddrS1</t>
+  </si>
+  <si>
+    <t>AddrS2</t>
+  </si>
+  <si>
+    <t>ValidState</t>
+  </si>
+  <si>
+    <t>CityS</t>
+  </si>
+  <si>
+    <t>700001</t>
+  </si>
+  <si>
+    <t>9008889999</t>
+  </si>
+  <si>
+    <t>State invalid</t>
+  </si>
+  <si>
+    <t>StateInv</t>
+  </si>
+  <si>
+    <t>stateinv@example.com</t>
+  </si>
+  <si>
+    <t>StatePass2</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>SF2</t>
+  </si>
+  <si>
+    <t>SL2</t>
+  </si>
+  <si>
+    <t>CoS2</t>
+  </si>
+  <si>
+    <t>AddrS21</t>
+  </si>
+  <si>
+    <t>AddrS22</t>
+  </si>
+  <si>
+    <t>123State</t>
+  </si>
+  <si>
+    <t>CitySI</t>
+  </si>
+  <si>
+    <t>700002</t>
+  </si>
+  <si>
+    <t>9009990000</t>
+  </si>
+  <si>
+    <t>City valid</t>
+  </si>
+  <si>
+    <t>CityUser</t>
+  </si>
+  <si>
+    <t>cityuser@example.com</t>
+  </si>
+  <si>
+    <t>CityPass</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>CityF</t>
+  </si>
+  <si>
+    <t>CompC</t>
+  </si>
+  <si>
+    <t>AddrC1</t>
+  </si>
+  <si>
+    <t>AddrC2</t>
+  </si>
+  <si>
+    <t>StC</t>
+  </si>
+  <si>
+    <t>ValidCity</t>
+  </si>
+  <si>
+    <t>800001</t>
+  </si>
+  <si>
+    <t>9011112222</t>
+  </si>
+  <si>
+    <t>City invalid</t>
+  </si>
+  <si>
+    <t>CityInv</t>
+  </si>
+  <si>
+    <t>cityinv@example.com</t>
+  </si>
+  <si>
+    <t>CityPass2</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>CFI</t>
+  </si>
+  <si>
+    <t>CLI</t>
+  </si>
+  <si>
+    <t>AddrI1</t>
+  </si>
+  <si>
+    <t>AddrI2</t>
+  </si>
+  <si>
+    <t>StI</t>
+  </si>
+  <si>
+    <t>123City</t>
+  </si>
+  <si>
+    <t>800002</t>
+  </si>
+  <si>
+    <t>9012223333</t>
+  </si>
+  <si>
+    <t>Zip valid</t>
+  </si>
+  <si>
+    <t>ZipUser</t>
+  </si>
+  <si>
+    <t>zipuser@example.com</t>
+  </si>
+  <si>
+    <t>ZipPass</t>
+  </si>
+  <si>
+    <t>ZF</t>
+  </si>
+  <si>
+    <t>ZL</t>
+  </si>
+  <si>
+    <t>ZCo</t>
+  </si>
+  <si>
+    <t>ZAddr1</t>
+  </si>
+  <si>
+    <t>ZAddr2</t>
+  </si>
+  <si>
+    <t>StZ</t>
+  </si>
+  <si>
+    <t>CityZ</t>
+  </si>
+  <si>
+    <t>9123456780</t>
+  </si>
+  <si>
+    <t>Zip invalid</t>
+  </si>
+  <si>
+    <t>ZipInv</t>
+  </si>
+  <si>
+    <t>zipinv@example.com</t>
+  </si>
+  <si>
+    <t>ZipPass2</t>
+  </si>
+  <si>
+    <t>ZIF</t>
+  </si>
+  <si>
+    <t>ZIL</t>
+  </si>
+  <si>
+    <t>ZIComp</t>
+  </si>
+  <si>
+    <t>ZIAddr1</t>
+  </si>
+  <si>
+    <t>ZIAddr2</t>
+  </si>
+  <si>
+    <t>StZI</t>
+  </si>
+  <si>
+    <t>CityZI</t>
+  </si>
+  <si>
+    <t>12ab</t>
+  </si>
+  <si>
+    <t>9123456781</t>
+  </si>
+  <si>
+    <t>Mobile valid</t>
+  </si>
+  <si>
+    <t>MobileUser</t>
+  </si>
+  <si>
+    <t>mobileuser@example.com</t>
+  </si>
+  <si>
+    <t>MobPass</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>MComp</t>
+  </si>
+  <si>
+    <t>MAddr1</t>
+  </si>
+  <si>
+    <t>MAddr2</t>
+  </si>
+  <si>
+    <t>StM</t>
+  </si>
+  <si>
+    <t>CityM</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>Mobile invalid</t>
+  </si>
+  <si>
+    <t>MobileInv</t>
+  </si>
+  <si>
+    <t>mobileinv@example.com</t>
+  </si>
+  <si>
+    <t>MobPass2</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>MIF</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>MIComp</t>
+  </si>
+  <si>
+    <t>MIAddr1</t>
+  </si>
+  <si>
+    <t>MIAddr2</t>
+  </si>
+  <si>
+    <t>StMI</t>
+  </si>
+  <si>
+    <t>CityMI</t>
+  </si>
+  <si>
+    <t>600002</t>
+  </si>
+  <si>
+    <t>abcd1234</t>
+  </si>
+  <si>
+    <t>Subscribe field valid</t>
+  </si>
+  <si>
+    <t>SubUser</t>
+  </si>
+  <si>
+    <t>subuser@example.com</t>
+  </si>
+  <si>
+    <t>SubPass</t>
+  </si>
+  <si>
+    <t>SCo</t>
+  </si>
+  <si>
+    <t>SAddr1</t>
+  </si>
+  <si>
+    <t>SAddr2</t>
+  </si>
+  <si>
+    <t>StS</t>
+  </si>
+  <si>
+    <t>9001234567</t>
+  </si>
+  <si>
+    <t>Subscribe field invalid</t>
+  </si>
+  <si>
+    <t>SubInv</t>
+  </si>
+  <si>
+    <t>subinv@example.com</t>
+  </si>
+  <si>
+    <t>SubPass2</t>
+  </si>
+  <si>
+    <t>SIF</t>
+  </si>
+  <si>
+    <t>SIL</t>
+  </si>
+  <si>
+    <t>SICO</t>
+  </si>
+  <si>
+    <t>SIAddr1</t>
+  </si>
+  <si>
+    <t>SIAddr2</t>
+  </si>
+  <si>
+    <t>StSI</t>
+  </si>
+  <si>
+    <t>560002</t>
+  </si>
+  <si>
+    <t>9007654321</t>
+  </si>
+  <si>
+    <t>Create account button flow</t>
+  </si>
+  <si>
+    <t>CreateUser</t>
+  </si>
+  <si>
+    <t>createuser@example.com</t>
+  </si>
+  <si>
+    <t>CreatePass</t>
+  </si>
+  <si>
+    <t>CompCreate</t>
+  </si>
+  <si>
+    <t>600003</t>
+  </si>
+  <si>
+    <t>9003334445</t>
+  </si>
+  <si>
+    <t>Subscribe button flow</t>
+  </si>
+  <si>
+    <t>SubsBtnUser</t>
+  </si>
+  <si>
+    <t>subsbtn@example.com</t>
+  </si>
+  <si>
+    <t>SubsPass</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>SBF</t>
+  </si>
+  <si>
+    <t>SBL</t>
+  </si>
+  <si>
+    <t>SBComp</t>
+  </si>
+  <si>
+    <t>SBAddr1</t>
+  </si>
+  <si>
+    <t>SBAddr2</t>
+  </si>
+  <si>
+    <t>StSB</t>
+  </si>
+  <si>
+    <t>CitySB</t>
+  </si>
+  <si>
+    <t>600004</t>
+  </si>
+  <si>
+    <t>9004445556</t>
+  </si>
+  <si>
+    <t>Continue button after create</t>
+  </si>
+  <si>
+    <t>ContUser</t>
+  </si>
+  <si>
+    <t>continue@example.com</t>
+  </si>
+  <si>
+    <t>ContPass</t>
+  </si>
+  <si>
+    <t>CompCon</t>
+  </si>
+  <si>
+    <t>CAddr1</t>
+  </si>
+  <si>
+    <t>CAddr2</t>
+  </si>
+  <si>
+    <t>StCon</t>
+  </si>
+  <si>
+    <t>CityCon</t>
+  </si>
+  <si>
+    <t>600005</t>
+  </si>
+  <si>
+    <t>9005556667</t>
+  </si>
+  <si>
+    <t>Registration with already registered email</t>
+  </si>
+  <si>
+    <t>ExistingReg</t>
+  </si>
+  <si>
+    <t>ExistPass</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>CompE</t>
+  </si>
+  <si>
+    <t>EAddr1</t>
+  </si>
+  <si>
+    <t>EAddr2</t>
+  </si>
+  <si>
+    <t>StE</t>
+  </si>
+  <si>
+    <t>CityE</t>
+  </si>
+  <si>
+    <t>600006</t>
+  </si>
+  <si>
+    <t>9006667778</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,43 +1571,96 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{01215267-9885-4496-91F0-CBE87EE769C3}"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -340,20 +1850,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="127" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -361,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -369,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -377,7 +1892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -385,7 +1900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -394,27 +1909,30 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.0"/>
-    <col customWidth="1" min="2" max="2" width="31.38"/>
-    <col customWidth="1" min="3" max="3" width="25.13"/>
-    <col customWidth="1" min="4" max="4" width="29.13"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -428,7 +1946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -442,7 +1960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -456,7 +1974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -471,6 +1989,2428 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06614D1-AFF0-462A-95E7-A41BA99B24A1}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="mailto:syedsuhail@gmail.com" xr:uid="{B9F239EA-E122-4D03-A060-7FDE2587E2BB}"/>
+    <hyperlink ref="B4" r:id="rId2" display="mailto:syedsuhail@gmail.com" xr:uid="{F6630C39-B689-4CBA-AD15-757E41845BA8}"/>
+    <hyperlink ref="B5" r:id="rId3" display="mailto:wrong@gmail.com" xr:uid="{3157390D-684E-4B2F-B28D-B74F5E124E71}"/>
+    <hyperlink ref="B6" r:id="rId4" display="mailto:fake@gmail.com" xr:uid="{3062427E-5268-47D4-9CFF-4701E54F35C9}"/>
+    <hyperlink ref="B7" r:id="rId5" display="mailto:syedsuhail@gmail.com" xr:uid="{94D88D9B-AE34-4B6A-9D50-71EA0EA10E1D}"/>
+    <hyperlink ref="B10" r:id="rId6" display="mailto:wrong@gmail.com" xr:uid="{4F331292-0665-4460-8317-20111405EB43}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA930E6-7F14-4CAA-ADC5-D0056FC28FE7}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="13" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E135AC75-EC50-4096-8B89-4153CC5A2FA7}">
+  <dimension ref="A1:U31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="I11" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="T11" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="U11" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="I13" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="I17" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="I18" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="I19" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="I20" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="I21" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="T21" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="U21" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="U22" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="T23" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="U23" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="T24" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="U24" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T26" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I27" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="S27" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="I28" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="T28" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="U28" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="I29" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="U29" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="I30" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="S30" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="T30" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="U30" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="69" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="I31" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="S31" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="T31" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="U31" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>